--- a/REGULAR/ANACAY, ANICETA.xlsx
+++ b/REGULAR/ANACAY, ANICETA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C392EC22-4A61-4AB4-B683-2E834C04D7F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,12 +253,15 @@
   </si>
   <si>
     <t>ANACAY, ANICETA</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -960,25 +956,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1285,34 +1281,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K146"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A77"/>
+      <pane ySplit="3576" topLeftCell="A86" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1329,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1348,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1373,7 +1369,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1388,7 +1384,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1401,7 +1397,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="53" t="s">
@@ -1418,7 +1414,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1462,7 +1458,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>117.268</v>
+        <v>120.268</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1472,12 +1468,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.25</v>
+        <v>146.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>43</v>
       </c>
@@ -1499,7 +1495,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1519,7 +1515,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1545,7 +1541,7 @@
         <v>43134</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1571,7 +1567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1595,7 +1591,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1615,7 +1611,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1641,7 +1637,7 @@
         <v>43274</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="21" t="s">
         <v>47</v>
@@ -1658,7 +1654,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="21" t="s">
         <v>44</v>
@@ -1677,7 +1673,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>43282</v>
       </c>
@@ -1701,7 +1697,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="21" t="s">
         <v>44</v>
@@ -1720,7 +1716,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>43313</v>
       </c>
@@ -1740,7 +1736,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="42">
         <v>43344</v>
       </c>
@@ -1766,7 +1762,7 @@
         <v>43353</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>44</v>
@@ -1785,7 +1781,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>43374</v>
       </c>
@@ -1811,7 +1807,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
       <c r="B25" s="21" t="s">
         <v>48</v>
@@ -1830,7 +1826,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>43405</v>
       </c>
@@ -1856,7 +1852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="42"/>
       <c r="B27" s="21" t="s">
         <v>44</v>
@@ -1875,7 +1871,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>43435</v>
       </c>
@@ -1901,7 +1897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
         <v>52</v>
       </c>
@@ -1919,7 +1915,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
         <v>43466</v>
       </c>
@@ -1939,7 +1935,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>43497</v>
       </c>
@@ -1959,7 +1955,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>43525</v>
       </c>
@@ -1985,7 +1981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="21" t="s">
         <v>53</v>
@@ -2004,7 +2000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>43556</v>
       </c>
@@ -2024,7 +2020,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>43586</v>
       </c>
@@ -2044,7 +2040,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>43617</v>
       </c>
@@ -2064,7 +2060,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>43647</v>
       </c>
@@ -2084,7 +2080,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
         <v>43678</v>
       </c>
@@ -2108,7 +2104,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="21" t="s">
         <v>44</v>
@@ -2127,7 +2123,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="42"/>
       <c r="B40" s="21" t="s">
         <v>47</v>
@@ -2144,7 +2140,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="42"/>
       <c r="B41" s="21" t="s">
         <v>44</v>
@@ -2163,7 +2159,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="42"/>
       <c r="B42" s="21" t="s">
         <v>44</v>
@@ -2182,7 +2178,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
         <v>43709</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
       <c r="B44" s="21" t="s">
         <v>44</v>
@@ -2227,7 +2223,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="42">
         <v>43739</v>
       </c>
@@ -2253,7 +2249,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="42"/>
       <c r="B46" s="21" t="s">
         <v>56</v>
@@ -2272,7 +2268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="42">
         <v>43770</v>
       </c>
@@ -2292,7 +2288,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="42">
         <v>43800</v>
       </c>
@@ -2312,7 +2308,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
         <v>59</v>
       </c>
@@ -2330,7 +2326,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="42">
         <v>43831</v>
       </c>
@@ -2354,7 +2350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="42"/>
       <c r="B51" s="21" t="s">
         <v>44</v>
@@ -2371,7 +2367,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="42">
         <v>43862</v>
       </c>
@@ -2391,7 +2387,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="42">
         <v>43891</v>
       </c>
@@ -2411,7 +2407,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="42">
         <v>43922</v>
       </c>
@@ -2431,7 +2427,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="42">
         <v>43952</v>
       </c>
@@ -2451,7 +2447,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="42">
         <v>43983</v>
       </c>
@@ -2471,7 +2467,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="42">
         <v>44013</v>
       </c>
@@ -2491,7 +2487,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>44044</v>
       </c>
@@ -2517,7 +2513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="42"/>
       <c r="B59" s="21" t="s">
         <v>50</v>
@@ -2536,7 +2532,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
         <v>44075</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="42">
         <v>44105</v>
       </c>
@@ -2586,7 +2582,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="42">
         <v>44136</v>
       </c>
@@ -2612,7 +2608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="42">
         <v>44166</v>
       </c>
@@ -2636,7 +2632,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
         <v>66</v>
       </c>
@@ -2654,7 +2650,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="42">
         <v>44197</v>
       </c>
@@ -2674,7 +2670,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="42">
         <v>44228</v>
       </c>
@@ -2694,7 +2690,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="42">
         <v>44256</v>
       </c>
@@ -2714,7 +2710,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="42">
         <v>44287</v>
       </c>
@@ -2738,7 +2734,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="42">
         <v>44317</v>
       </c>
@@ -2758,7 +2754,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="42">
         <v>44348</v>
       </c>
@@ -2778,7 +2774,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="42">
         <v>44378</v>
       </c>
@@ -2798,7 +2794,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="42">
         <v>44409</v>
       </c>
@@ -2818,7 +2814,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="42">
         <v>44440</v>
       </c>
@@ -2838,7 +2834,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="42">
         <v>44470</v>
       </c>
@@ -2864,7 +2860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="42"/>
       <c r="B75" s="21" t="s">
         <v>67</v>
@@ -2881,7 +2877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="42">
         <v>44501</v>
       </c>
@@ -2901,7 +2897,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="42">
         <v>44531</v>
       </c>
@@ -2921,7 +2917,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="s">
         <v>70</v>
       </c>
@@ -2939,7 +2935,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="42">
         <v>44562</v>
       </c>
@@ -2959,7 +2955,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="42">
         <v>44593</v>
       </c>
@@ -2985,7 +2981,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="42">
         <v>44621</v>
       </c>
@@ -3009,7 +3005,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="42">
         <v>44652</v>
       </c>
@@ -3029,7 +3025,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="42">
         <v>44682</v>
       </c>
@@ -3049,7 +3045,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="42">
         <v>44713</v>
       </c>
@@ -3069,7 +3065,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="42">
         <v>44743</v>
       </c>
@@ -3089,7 +3085,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="42">
         <v>44774</v>
       </c>
@@ -3113,7 +3109,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="42">
         <v>44805</v>
       </c>
@@ -3133,7 +3129,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="42">
         <v>44835</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="42">
         <v>44866</v>
       </c>
@@ -3183,7 +3179,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="42"/>
       <c r="B90" s="21" t="s">
         <v>47</v>
@@ -3203,7 +3199,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="42"/>
       <c r="B91" s="21" t="s">
         <v>45</v>
@@ -3225,24 +3221,34 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="41"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="42">
+        <v>44896</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D92" s="41">
+        <v>2</v>
+      </c>
       <c r="E92" s="10"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="41"/>
       <c r="I92" s="10"/>
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="50" t="s">
+        <v>73</v>
+      </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
       <c r="D93" s="41"/>
@@ -3257,57 +3263,73 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="42">
+        <v>44927</v>
+      </c>
       <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="41"/>
       <c r="E94" s="10"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="41"/>
       <c r="I94" s="10"/>
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="42">
+        <v>44958</v>
+      </c>
       <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
+      <c r="C95" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="41"/>
       <c r="E95" s="10"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="41"/>
       <c r="I95" s="10"/>
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="42">
+        <v>44986</v>
+      </c>
       <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
+      <c r="C96" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="41"/>
       <c r="E96" s="10"/>
       <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="41"/>
       <c r="I96" s="10"/>
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="21"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="42">
+        <v>45017</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="C97" s="14"/>
       <c r="D97" s="41"/>
       <c r="E97" s="10"/>
@@ -3319,10 +3341,14 @@
       <c r="H97" s="41"/>
       <c r="I97" s="10"/>
       <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="K97" s="51">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="42">
+        <v>45047</v>
+      </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
       <c r="D98" s="41"/>
@@ -3337,8 +3363,10 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="42">
+        <v>45078</v>
+      </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
       <c r="D99" s="41"/>
@@ -3353,8 +3381,10 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="42">
+        <v>45108</v>
+      </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
       <c r="D100" s="41"/>
@@ -3369,7 +3399,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3385,7 +3415,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3401,7 +3431,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3417,7 +3447,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3433,7 +3463,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3449,7 +3479,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3465,7 +3495,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3481,7 +3511,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3497,7 +3527,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3513,7 +3543,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3529,7 +3559,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3545,7 +3575,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3561,7 +3591,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3577,7 +3607,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3593,7 +3623,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3609,7 +3639,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3625,7 +3655,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3641,7 +3671,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3657,7 +3687,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3673,7 +3703,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3689,7 +3719,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3705,7 +3735,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3721,7 +3751,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3737,7 +3767,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3753,7 +3783,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3769,7 +3799,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3785,7 +3815,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3801,7 +3831,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3817,7 +3847,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3833,7 +3863,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -3849,7 +3879,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="42"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -3865,7 +3895,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="42"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -3881,7 +3911,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="42"/>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -3897,7 +3927,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="42"/>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -3913,7 +3943,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="42"/>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -3929,7 +3959,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="42"/>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -3945,7 +3975,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="42"/>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -3961,7 +3991,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="42"/>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -3977,7 +4007,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="42"/>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -3993,7 +4023,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="42"/>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4009,7 +4039,7 @@
       <c r="J140" s="12"/>
       <c r="K140" s="21"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="42"/>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4025,7 +4055,7 @@
       <c r="J141" s="12"/>
       <c r="K141" s="21"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="42"/>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4041,7 +4071,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="21"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="42"/>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4057,7 +4087,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="21"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="42"/>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -4073,7 +4103,7 @@
       <c r="J144" s="12"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="42"/>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -4089,21 +4119,37 @@
       <c r="J145" s="12"/>
       <c r="K145" s="21"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="43"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="45"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="42"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="41"/>
       <c r="E146" s="10"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="45"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="41"/>
       <c r="I146" s="10"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="16"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="21"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="43"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="45"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4120,10 +4166,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4146,28 +4192,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -4180,7 +4226,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -4209,7 +4255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>77.768000000000001</v>
       </c>
@@ -4233,17 +4279,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -4264,7 +4310,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -4291,7 +4337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -4317,7 +4363,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -4343,7 +4389,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -4369,7 +4415,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -4395,7 +4441,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -4421,7 +4467,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -4447,7 +4493,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -4473,7 +4519,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -4493,7 +4539,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -4513,7 +4559,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -4533,7 +4579,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -4554,7 +4600,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -4575,7 +4621,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -4596,7 +4642,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -4617,7 +4663,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -4638,7 +4684,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -4659,7 +4705,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -4680,7 +4726,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -4701,7 +4747,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -4722,7 +4768,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -4743,7 +4789,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -4764,7 +4810,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -4785,7 +4831,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -4806,7 +4852,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -4827,7 +4873,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -4848,7 +4894,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -4869,7 +4915,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -4890,7 +4936,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -4911,7 +4957,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -4932,7 +4978,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -4953,7 +4999,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -4962,7 +5008,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -4971,7 +5017,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -4980,7 +5026,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -4989,7 +5035,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -4998,7 +5044,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -5007,7 +5053,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -5016,7 +5062,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -5025,7 +5071,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -5034,7 +5080,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -5043,7 +5089,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -5052,7 +5098,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -5061,7 +5107,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -5070,7 +5116,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -5079,7 +5125,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -5088,7 +5134,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -5097,7 +5143,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -5106,7 +5152,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -5115,7 +5161,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -5124,7 +5170,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -5133,7 +5179,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -5142,7 +5188,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -5151,7 +5197,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -5160,7 +5206,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -5169,7 +5215,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -5178,7 +5224,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -5187,7 +5233,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -5196,7 +5242,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -5205,7 +5251,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -5214,7 +5260,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
